--- a/Исследование вставки.xlsx
+++ b/Исследование вставки.xlsx
@@ -10,12 +10,11 @@
     <sheet name="MySQL insert, tr_count=const" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>Данные для MySQL, TR_COUNT = const</t>
   </si>
@@ -59,7 +58,16 @@
     <t>inf</t>
   </si>
   <si>
-    <t>indexation</t>
+    <t>индексация</t>
+  </si>
+  <si>
+    <t>Скорость выполнения запросов MySQL, on index</t>
+  </si>
+  <si>
+    <t>Скорость выполнения запросов, MongoDB, no index</t>
+  </si>
+  <si>
+    <t>Error(too much data)</t>
   </si>
 </sst>
 </file>
@@ -402,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -789,16 +797,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
-      </left>
-      <right style="thin">
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </right>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -846,7 +881,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -865,6 +900,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -889,48 +961,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3458,11 +3563,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="75718656"/>
-        <c:axId val="75720576"/>
+        <c:axId val="62275968"/>
+        <c:axId val="62277888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75718656"/>
+        <c:axId val="62275968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3496,12 +3601,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75720576"/>
+        <c:crossAx val="62277888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75720576"/>
+        <c:axId val="62277888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3536,7 +3641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75718656"/>
+        <c:crossAx val="62275968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5115,11 +5220,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="75734016"/>
-        <c:axId val="75752576"/>
+        <c:axId val="81137024"/>
+        <c:axId val="81139200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75734016"/>
+        <c:axId val="81137024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5148,12 +5253,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75752576"/>
+        <c:crossAx val="81139200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75752576"/>
+        <c:axId val="81139200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5183,7 +5288,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75734016"/>
+        <c:crossAx val="81137024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5311,11 +5416,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="82851712"/>
-        <c:axId val="82853248"/>
+        <c:axId val="81172736"/>
+        <c:axId val="81174528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82851712"/>
+        <c:axId val="81172736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5325,12 +5430,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82853248"/>
+        <c:crossAx val="81174528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82853248"/>
+        <c:axId val="81174528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5341,7 +5446,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82851712"/>
+        <c:crossAx val="81172736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5489,11 +5594,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="82887808"/>
-        <c:axId val="82889344"/>
+        <c:axId val="81190912"/>
+        <c:axId val="81192448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82887808"/>
+        <c:axId val="81190912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5503,12 +5608,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82889344"/>
+        <c:crossAx val="81192448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82889344"/>
+        <c:axId val="81192448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5519,7 +5624,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82887808"/>
+        <c:crossAx val="81190912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5664,11 +5769,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="84552704"/>
-        <c:axId val="84583168"/>
+        <c:axId val="81225216"/>
+        <c:axId val="81226752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84552704"/>
+        <c:axId val="81225216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5678,12 +5783,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84583168"/>
+        <c:crossAx val="81226752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84583168"/>
+        <c:axId val="81226752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5694,7 +5799,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84552704"/>
+        <c:crossAx val="81225216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7038,11 +7143,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="28560384"/>
-        <c:axId val="28558080"/>
+        <c:axId val="81269888"/>
+        <c:axId val="81271808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="28560384"/>
+        <c:axId val="81269888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7073,12 +7178,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="28558080"/>
+        <c:crossAx val="81271808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="28558080"/>
+        <c:axId val="81271808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7114,7 +7219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="28560384"/>
+        <c:crossAx val="81269888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7610,27 +7715,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F118" workbookViewId="0">
-      <selection activeCell="N129" sqref="N129"/>
+    <sheetView tabSelected="1" topLeftCell="F100" workbookViewId="0">
+      <selection activeCell="O146" sqref="O146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="32"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -7815,10 +7921,10 @@
       <c r="B25" s="8">
         <v>28</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="23"/>
+      <c r="D25" s="36"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -7827,8 +7933,8 @@
       <c r="B26" s="8">
         <v>29</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
@@ -8067,10 +8173,10 @@
       <c r="D43" s="11">
         <v>16</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="F43" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G43" s="23"/>
+      <c r="G43" s="36"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
@@ -8085,8 +8191,8 @@
       <c r="D44" s="11">
         <v>16</v>
       </c>
-      <c r="F44" s="24"/>
-      <c r="G44" s="25"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="38"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
@@ -8101,8 +8207,8 @@
       <c r="D45" s="11">
         <v>17</v>
       </c>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="38"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
@@ -8117,8 +8223,8 @@
       <c r="D46" s="11">
         <v>18</v>
       </c>
-      <c r="F46" s="24"/>
-      <c r="G46" s="25"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="38"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
@@ -9267,10 +9373,10 @@
       <c r="D104" s="11">
         <v>71</v>
       </c>
-      <c r="T104" s="26" t="s">
+      <c r="T104" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="U104" s="27"/>
+      <c r="U104" s="20"/>
     </row>
     <row r="105" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
@@ -9285,12 +9391,12 @@
       <c r="D105" s="11">
         <v>72</v>
       </c>
-      <c r="F105" s="26" t="s">
+      <c r="F105" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G105" s="27"/>
-      <c r="T105" s="28"/>
-      <c r="U105" s="29"/>
+      <c r="G105" s="20"/>
+      <c r="T105" s="21"/>
+      <c r="U105" s="22"/>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
@@ -9305,10 +9411,10 @@
       <c r="D106" s="11">
         <v>73</v>
       </c>
-      <c r="F106" s="28"/>
-      <c r="G106" s="29"/>
-      <c r="T106" s="28"/>
-      <c r="U106" s="29"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="22"/>
+      <c r="T106" s="21"/>
+      <c r="U106" s="22"/>
     </row>
     <row r="107" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
@@ -9323,10 +9429,10 @@
       <c r="D107" s="11">
         <v>74</v>
       </c>
-      <c r="F107" s="28"/>
-      <c r="G107" s="29"/>
-      <c r="T107" s="30"/>
-      <c r="U107" s="31"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="22"/>
+      <c r="T107" s="23"/>
+      <c r="U107" s="24"/>
     </row>
     <row r="108" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
@@ -9341,12 +9447,12 @@
       <c r="D108" s="11">
         <v>74</v>
       </c>
-      <c r="F108" s="30"/>
-      <c r="G108" s="31"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="24"/>
       <c r="T108" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="U108" s="32" t="s">
+      <c r="U108" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -9366,7 +9472,7 @@
       <c r="F109" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G109" s="32" t="s">
+      <c r="G109" s="18" t="s">
         <v>4</v>
       </c>
       <c r="T109" s="16">
@@ -9759,12 +9865,18 @@
       <c r="G124" s="11">
         <v>31</v>
       </c>
-      <c r="I124" s="35" t="s">
+      <c r="I124" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="J124" s="36"/>
-      <c r="K124" s="36"/>
-      <c r="L124" s="37"/>
+      <c r="J124" s="26"/>
+      <c r="K124" s="26"/>
+      <c r="L124" s="27"/>
+      <c r="M124" s="46"/>
+      <c r="N124" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="O124" s="42"/>
+      <c r="P124" s="43"/>
       <c r="T124" s="10">
         <v>16000</v>
       </c>
@@ -9791,10 +9903,14 @@
       <c r="G125" s="11">
         <v>34</v>
       </c>
-      <c r="I125" s="38"/>
-      <c r="J125" s="34"/>
-      <c r="K125" s="34"/>
-      <c r="L125" s="39"/>
+      <c r="I125" s="28"/>
+      <c r="J125" s="29"/>
+      <c r="K125" s="29"/>
+      <c r="L125" s="30"/>
+      <c r="M125" s="47"/>
+      <c r="N125" s="49"/>
+      <c r="O125" s="41"/>
+      <c r="P125" s="44"/>
       <c r="T125" s="10">
         <v>17000</v>
       </c>
@@ -9802,7 +9918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>121000</v>
       </c>
@@ -9821,20 +9937,29 @@
       <c r="G126" s="11">
         <v>36</v>
       </c>
-      <c r="I126" s="14" t="s">
+      <c r="I126" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="J126" s="41" t="s">
+      <c r="J126" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K126" s="41" t="s">
+      <c r="K126" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="L126" s="15" t="s">
+      <c r="L126" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="M126" s="43" t="s">
+      <c r="M126" s="52" t="s">
         <v>14</v>
+      </c>
+      <c r="N126" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="O126" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="P126" s="55" t="s">
+        <v>12</v>
       </c>
       <c r="T126" s="10">
         <v>18000</v>
@@ -9862,20 +9987,29 @@
       <c r="G127" s="11">
         <v>38</v>
       </c>
-      <c r="I127" s="16">
+      <c r="I127" s="50">
         <v>110000</v>
       </c>
-      <c r="J127" s="42">
+      <c r="J127" s="45">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="K127" s="42">
+      <c r="K127" s="45">
         <v>3.8</v>
       </c>
-      <c r="L127" s="17">
+      <c r="L127" s="51">
         <v>1.3260000000000001</v>
       </c>
-      <c r="M127" s="43">
+      <c r="M127" s="52">
         <v>3.7</v>
+      </c>
+      <c r="N127" s="53">
+        <v>4.7E-2</v>
+      </c>
+      <c r="O127" s="45">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="P127" s="51">
+        <v>0.874</v>
       </c>
       <c r="T127" s="10">
         <v>19000</v>
@@ -9903,20 +10037,29 @@
       <c r="G128" s="11">
         <v>41</v>
       </c>
-      <c r="I128" s="10">
+      <c r="I128" s="50">
         <v>1100000</v>
       </c>
-      <c r="J128" s="33">
+      <c r="J128" s="45">
         <v>5</v>
       </c>
-      <c r="K128" s="33" t="s">
+      <c r="K128" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="L128" s="11">
+      <c r="L128" s="51">
         <v>11.808999999999999</v>
       </c>
-      <c r="M128" s="43">
+      <c r="M128" s="52">
         <v>57</v>
+      </c>
+      <c r="N128" s="53">
+        <v>1.2</v>
+      </c>
+      <c r="O128" s="45">
+        <v>144</v>
+      </c>
+      <c r="P128" s="51">
+        <v>3.38</v>
       </c>
       <c r="T128" s="10">
         <v>20000</v>
@@ -9944,20 +10087,29 @@
       <c r="G129" s="11">
         <v>44</v>
       </c>
-      <c r="I129" s="12">
+      <c r="I129" s="56">
         <v>5500000</v>
       </c>
-      <c r="J129" s="40">
+      <c r="J129" s="57">
         <v>36</v>
       </c>
-      <c r="K129" s="40" t="s">
+      <c r="K129" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="L129" s="13">
+      <c r="L129" s="58">
         <v>33</v>
       </c>
-      <c r="M129" s="43">
+      <c r="M129" s="59">
         <v>458</v>
+      </c>
+      <c r="N129" s="60">
+        <v>5</v>
+      </c>
+      <c r="O129" s="57">
+        <v>222</v>
+      </c>
+      <c r="P129" s="58">
+        <v>19</v>
       </c>
       <c r="T129" s="10">
         <v>21000</v>
@@ -9966,7 +10118,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>125000</v>
       </c>
@@ -9985,6 +10137,14 @@
       <c r="G130" s="11">
         <v>47</v>
       </c>
+      <c r="I130" s="39"/>
+      <c r="J130" s="39"/>
+      <c r="K130" s="39"/>
+      <c r="L130" s="39"/>
+      <c r="M130" s="39"/>
+      <c r="N130" s="39"/>
+      <c r="O130" s="39"/>
+      <c r="P130" s="39"/>
       <c r="T130" s="10">
         <v>22000</v>
       </c>
@@ -10011,6 +10171,16 @@
       <c r="G131" s="11">
         <v>50</v>
       </c>
+      <c r="I131" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J131" s="26"/>
+      <c r="K131" s="26"/>
+      <c r="L131" s="27"/>
+      <c r="M131" s="61"/>
+      <c r="N131" s="40"/>
+      <c r="O131" s="40"/>
+      <c r="P131" s="40"/>
       <c r="T131" s="10">
         <v>23000</v>
       </c>
@@ -10037,6 +10207,14 @@
       <c r="G132" s="11">
         <v>52</v>
       </c>
+      <c r="I132" s="28"/>
+      <c r="J132" s="29"/>
+      <c r="K132" s="29"/>
+      <c r="L132" s="30"/>
+      <c r="M132" s="61"/>
+      <c r="N132" s="40"/>
+      <c r="O132" s="40"/>
+      <c r="P132" s="40"/>
       <c r="T132" s="10">
         <v>24000</v>
       </c>
@@ -10063,6 +10241,22 @@
       <c r="G133" s="11">
         <v>54</v>
       </c>
+      <c r="I133" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J133" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="K133" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="L133" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="M133" s="62"/>
+      <c r="N133" s="62"/>
+      <c r="O133" s="62"/>
+      <c r="P133" s="62"/>
       <c r="T133" s="10">
         <v>25000</v>
       </c>
@@ -10089,6 +10283,22 @@
       <c r="G134" s="11">
         <v>58</v>
       </c>
+      <c r="I134" s="50">
+        <v>100002</v>
+      </c>
+      <c r="J134" s="45">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="K134" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="L134" s="51">
+        <v>0</v>
+      </c>
+      <c r="M134" s="62"/>
+      <c r="N134" s="62"/>
+      <c r="O134" s="63"/>
+      <c r="P134" s="63"/>
       <c r="T134" s="10">
         <v>26000</v>
       </c>
@@ -10115,6 +10325,22 @@
       <c r="G135" s="11">
         <v>60</v>
       </c>
+      <c r="I135" s="50">
+        <v>1000001</v>
+      </c>
+      <c r="J135" s="45">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="K135" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="L135" s="51">
+        <v>0</v>
+      </c>
+      <c r="M135" s="62"/>
+      <c r="N135" s="62"/>
+      <c r="O135" s="63"/>
+      <c r="P135" s="63"/>
       <c r="T135" s="10">
         <v>27000</v>
       </c>
@@ -10122,7 +10348,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>131000</v>
       </c>
@@ -10141,6 +10367,22 @@
       <c r="G136" s="11">
         <v>63</v>
       </c>
+      <c r="I136" s="56">
+        <v>5850000</v>
+      </c>
+      <c r="J136" s="57">
+        <v>6.3</v>
+      </c>
+      <c r="K136" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="L136" s="58">
+        <v>0</v>
+      </c>
+      <c r="M136" s="62"/>
+      <c r="N136" s="62"/>
+      <c r="O136" s="63"/>
+      <c r="P136" s="63"/>
       <c r="T136" s="10">
         <v>28000</v>
       </c>
@@ -10167,6 +10409,10 @@
       <c r="G137" s="11">
         <v>65</v>
       </c>
+      <c r="M137" s="8"/>
+      <c r="N137" s="8"/>
+      <c r="O137" s="8"/>
+      <c r="P137" s="8"/>
       <c r="T137" s="10">
         <v>29000</v>
       </c>
@@ -10193,6 +10439,10 @@
       <c r="G138" s="11">
         <v>67</v>
       </c>
+      <c r="M138" s="8"/>
+      <c r="N138" s="8"/>
+      <c r="O138" s="8"/>
+      <c r="P138" s="8"/>
       <c r="T138" s="10">
         <v>30000</v>
       </c>
@@ -12421,13 +12671,18 @@
       <c r="D329" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
+    <mergeCell ref="I131:L132"/>
+    <mergeCell ref="M131:M132"/>
+    <mergeCell ref="N131:P132"/>
     <mergeCell ref="T104:U107"/>
     <mergeCell ref="I124:L125"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C25:D26"/>
     <mergeCell ref="F43:G46"/>
     <mergeCell ref="F105:G108"/>
+    <mergeCell ref="N124:P125"/>
+    <mergeCell ref="M124:M125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
